--- a/outputs-HGR-r202/f__Lactobacillaceae.xlsx
+++ b/outputs-HGR-r202/f__Lactobacillaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,7 +666,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>g__Lactobacillus(reject)</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
@@ -938,150 +938,150 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59278.fa</t>
+          <t>even_MAG-GUT49487.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.145411631634774e-05</v>
+        <v>0.01282327414188406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001277470214483905</v>
+        <v>0.09233011788099965</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9139695926463067</v>
+        <v>0.01268141060512649</v>
       </c>
       <c r="E10" t="n">
-        <v>9.282256935422515e-06</v>
+        <v>0.02938716146633812</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01452470733265128</v>
+        <v>0.02091585718932413</v>
       </c>
       <c r="G10" t="n">
-        <v>9.27431694382213e-05</v>
+        <v>0.008101785589465163</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00105166679104774</v>
+        <v>0.008037921076595386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06272848487890292</v>
+        <v>0.06083620813762288</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00333767436679044</v>
+        <v>0.5898698565241843</v>
       </c>
       <c r="K10" t="n">
-        <v>2.476065614000711e-14</v>
+        <v>0.09176516072411528</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002996924227102174</v>
+        <v>0.07325124666434459</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9139695926463067</v>
+        <v>0.5898698565241843</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60365.fa</t>
+          <t>even_MAG-GUT59278.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.547582943421858e-05</v>
+        <v>1.145411631634774e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02323732122605328</v>
+        <v>0.001277470214483905</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1073469974921308</v>
+        <v>0.9139695926463067</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002005221450135106</v>
+        <v>9.282256935422515e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01849954528260002</v>
+        <v>0.01452470733265128</v>
       </c>
       <c r="G11" t="n">
-        <v>1.712829792877022e-05</v>
+        <v>9.27431694382213e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003700476400932011</v>
+        <v>0.00105166679104774</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002916277221263732</v>
+        <v>0.06272848487890292</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8371732170714659</v>
+        <v>0.00333767436679044</v>
       </c>
       <c r="K11" t="n">
-        <v>2.222287164028448e-14</v>
+        <v>2.476065614000711e-14</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008338768488872862</v>
+        <v>0.002996924227102174</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8371732170714659</v>
+        <v>0.9139695926463067</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61176.fa</t>
+          <t>even_MAG-GUT60365.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.716000095249519e-05</v>
+        <v>9.547582943421858e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0173423343005368</v>
+        <v>0.02323732122605328</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08685907172279109</v>
+        <v>0.1073469974921308</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002830463303803351</v>
+        <v>0.002005221450135106</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02302476540241382</v>
+        <v>0.01849954528260002</v>
       </c>
       <c r="G12" t="n">
-        <v>7.434557715037341e-06</v>
+        <v>1.712829792877022e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0005135898850530247</v>
+        <v>0.0003700476400932011</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003901266406834282</v>
+        <v>0.002916277221263732</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8598224394040463</v>
+        <v>0.8371732170714659</v>
       </c>
       <c r="K12" t="n">
-        <v>2.22151073777733e-14</v>
+        <v>2.222287164028448e-14</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00560147501583149</v>
+        <v>0.008338768488872862</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8598224394040463</v>
+        <v>0.8371732170714659</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1097,97 +1097,97 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62924.fa</t>
+          <t>even_MAG-GUT61176.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.697119779788845e-05</v>
+        <v>9.716000095249519e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001704562128516307</v>
+        <v>0.0173423343005368</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7725343446730043</v>
+        <v>0.08685907172279109</v>
       </c>
       <c r="E13" t="n">
-        <v>1.305872912053656e-05</v>
+        <v>0.002830463303803351</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02118212359696671</v>
+        <v>0.02302476540241382</v>
       </c>
       <c r="G13" t="n">
-        <v>1.27374755495905e-05</v>
+        <v>7.434557715037341e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0005904770887846992</v>
+        <v>0.0005135898850530247</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03759589607354712</v>
+        <v>0.003901266406834282</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1537015976376557</v>
+        <v>0.8598224394040463</v>
       </c>
       <c r="K13" t="n">
-        <v>2.561978887039018e-14</v>
+        <v>2.22151073777733e-14</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01257823139903128</v>
+        <v>0.00560147501583149</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7725343446730043</v>
+        <v>0.8598224394040463</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62939.fa</t>
+          <t>even_MAG-GUT62924.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.624594368431014e-06</v>
+        <v>8.697119779788845e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004985401724712312</v>
+        <v>0.001704562128516307</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9498899615420342</v>
+        <v>0.7725343446730043</v>
       </c>
       <c r="E14" t="n">
-        <v>2.996010537145404e-06</v>
+        <v>1.305872912053656e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006560679102616461</v>
+        <v>0.02118212359696671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002657620330994741</v>
+        <v>1.27374755495905e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008351261118532795</v>
+        <v>0.0005904770887846992</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03982062904572942</v>
+        <v>0.03759589607354712</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0007278837203819943</v>
+        <v>0.1537015976376557</v>
       </c>
       <c r="K14" t="n">
-        <v>2.220311279237905e-14</v>
+        <v>2.561978887039018e-14</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001393797666886128</v>
+        <v>0.01257823139903128</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9498899615420342</v>
+        <v>0.7725343446730043</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1203,44 +1203,44 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63100.fa</t>
+          <t>even_MAG-GUT62939.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.808355072525094e-05</v>
+        <v>4.624594368431014e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00111193141354858</v>
+        <v>0.0004985401724712312</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9072971780191326</v>
+        <v>0.9498899615420342</v>
       </c>
       <c r="E15" t="n">
-        <v>8.716388721226402e-06</v>
+        <v>2.996010537145404e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01363514996100734</v>
+        <v>0.006560679102616461</v>
       </c>
       <c r="G15" t="n">
-        <v>8.643518996382854e-05</v>
+        <v>0.0002657620330994741</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001038157013778666</v>
+        <v>0.0008351261118532795</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06461755529226348</v>
+        <v>0.03982062904572942</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007149889461308354</v>
+        <v>0.0007278837203819943</v>
       </c>
       <c r="K15" t="n">
-        <v>2.487974629654025e-14</v>
+        <v>2.220311279237905e-14</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005036903709525838</v>
+        <v>0.001393797666886128</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9072971780191326</v>
+        <v>0.9498899615420342</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1256,44 +1256,44 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63356.fa</t>
+          <t>even_MAG-GUT63100.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.670599937751891e-05</v>
+        <v>1.808355072525094e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002018922361262589</v>
+        <v>0.00111193141354858</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9074385043416766</v>
+        <v>0.9072971780191326</v>
       </c>
       <c r="E16" t="n">
-        <v>2.821404513918041e-05</v>
+        <v>8.716388721226402e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0139275184847864</v>
+        <v>0.01363514996100734</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0005162875972031522</v>
+        <v>8.643518996382854e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009315186922800899</v>
+        <v>0.001038157013778666</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06545446176954642</v>
+        <v>0.06461755529226348</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005601125381350622</v>
+        <v>0.007149889461308354</v>
       </c>
       <c r="K16" t="n">
-        <v>2.517631847320134e-14</v>
+        <v>2.487974629654025e-14</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004066741327352185</v>
+        <v>0.005036903709525838</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9074385043416766</v>
+        <v>0.9072971780191326</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1309,44 +1309,44 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63462.fa</t>
+          <t>even_MAG-GUT63356.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.000175191746509234</v>
+        <v>1.670599937751891e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002054602696258527</v>
+        <v>0.002018922361262589</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6774061944349512</v>
+        <v>0.9074385043416766</v>
       </c>
       <c r="E17" t="n">
-        <v>7.367130786060218e-05</v>
+        <v>2.821404513918041e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03389933979072686</v>
+        <v>0.0139275184847864</v>
       </c>
       <c r="G17" t="n">
-        <v>2.716927721330803e-05</v>
+        <v>0.0005162875972031522</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007607882168120735</v>
+        <v>0.0009315186922800899</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02965061019801684</v>
+        <v>0.06545446176954642</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2268869127955365</v>
+        <v>0.005601125381350622</v>
       </c>
       <c r="K17" t="n">
-        <v>3.041427950908629e-14</v>
+        <v>2.517631847320134e-14</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02906551953608451</v>
+        <v>0.004066741327352185</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6774061944349512</v>
+        <v>0.9074385043416766</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1355,51 +1355,51 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>g__Lactobacillus(reject)</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63569.fa</t>
+          <t>even_MAG-GUT63462.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001655545845060078</v>
+        <v>0.000175191746509234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002249083716891352</v>
+        <v>0.002054602696258527</v>
       </c>
       <c r="D18" t="n">
-        <v>0.831485907965084</v>
+        <v>0.6774061944349512</v>
       </c>
       <c r="E18" t="n">
-        <v>3.992789841099515e-05</v>
+        <v>7.367130786060218e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02883205948150683</v>
+        <v>0.03389933979072686</v>
       </c>
       <c r="G18" t="n">
-        <v>8.121010261481698e-05</v>
+        <v>2.716927721330803e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001038632894101875</v>
+        <v>0.0007607882168120735</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05905357046736352</v>
+        <v>0.02965061019801684</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06105812701283363</v>
+        <v>0.2268869127955365</v>
       </c>
       <c r="K18" t="n">
-        <v>3.443752766205032e-14</v>
+        <v>3.041427950908629e-14</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01599592587665259</v>
+        <v>0.02906551953608451</v>
       </c>
       <c r="M18" t="n">
-        <v>0.831485907965084</v>
+        <v>0.6774061944349512</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1408,157 +1408,157 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Lactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7285.fa</t>
+          <t>even_MAG-GUT63569.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01099441987149144</v>
+        <v>0.0001655545845060078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01273226685535707</v>
+        <v>0.002249083716891352</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09435497910304157</v>
+        <v>0.831485907965084</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01101382542387712</v>
+        <v>3.992789841099515e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01716897986905781</v>
+        <v>0.02883205948150683</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01149506930593663</v>
+        <v>8.121010261481698e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01221769523434441</v>
+        <v>0.001038632894101875</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6101275321079735</v>
+        <v>0.05905357046736352</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01216520633252057</v>
+        <v>0.06105812701283363</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1926191407385078</v>
+        <v>3.443752766205032e-14</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01511088515789204</v>
+        <v>0.01599592587665259</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6101275321079735</v>
+        <v>0.831485907965084</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus(reject)</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76426.fa</t>
+          <t>even_MAG-GUT7285.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002743343499091331</v>
+        <v>0.01099441987149144</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005415820763815265</v>
+        <v>0.01273226685535707</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07954403360035779</v>
+        <v>0.09435497910304157</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001721961841694533</v>
+        <v>0.01101382542387712</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02592778187861228</v>
+        <v>0.01716897986905781</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388759213111837e-05</v>
+        <v>0.01149506930593663</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001124617246401445</v>
+        <v>0.01221769523434441</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006775036380850554</v>
+        <v>0.6101275321079735</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8547682080727254</v>
+        <v>0.01216520633252057</v>
       </c>
       <c r="K20" t="n">
-        <v>2.493201598499318e-14</v>
+        <v>0.1926191407385078</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02443431827347761</v>
+        <v>0.01511088515789204</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8547682080727254</v>
+        <v>0.6101275321079735</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83507.fa</t>
+          <t>even_MAG-GUT76426.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0001440128006151015</v>
+        <v>0.0002743343499091331</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01115545474659354</v>
+        <v>0.005415820763815265</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04216566602210482</v>
+        <v>0.07954403360035779</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002108037576698078</v>
+        <v>0.001721961841694533</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01234418874621693</v>
+        <v>0.02592778187861228</v>
       </c>
       <c r="G21" t="n">
-        <v>4.189917739557564e-06</v>
+        <v>1.388759213111837e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0006037320926426935</v>
+        <v>0.001124617246401445</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002789270952566767</v>
+        <v>0.006775036380850554</v>
       </c>
       <c r="J21" t="n">
-        <v>0.920002259047341</v>
+        <v>0.8547682080727254</v>
       </c>
       <c r="K21" t="n">
-        <v>2.221643146549182e-14</v>
+        <v>2.493201598499318e-14</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008683188097459287</v>
+        <v>0.02443431827347761</v>
       </c>
       <c r="M21" t="n">
-        <v>0.920002259047341</v>
+        <v>0.8547682080727254</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1574,97 +1574,97 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86747.fa</t>
+          <t>even_MAG-GUT83507.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.481170271238986e-05</v>
+        <v>0.0001440128006151015</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000990106988304119</v>
+        <v>0.01115545474659354</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9374540654272564</v>
+        <v>0.04216566602210482</v>
       </c>
       <c r="E22" t="n">
-        <v>6.655175762929788e-06</v>
+        <v>0.002108037576698078</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01147984229163047</v>
+        <v>0.01234418874621693</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001735240498682004</v>
+        <v>4.189917739557564e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001165943660253697</v>
+        <v>0.0006037320926426935</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03815656244500892</v>
+        <v>0.002789270952566767</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00246104553321305</v>
+        <v>0.920002259047341</v>
       </c>
       <c r="K22" t="n">
-        <v>2.698623036854384e-14</v>
+        <v>2.221643146549182e-14</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008097442725963012</v>
+        <v>0.008683188097459287</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9374540654272564</v>
+        <v>0.920002259047341</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86758.fa</t>
+          <t>even_MAG-GUT86747.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.627417772244443e-05</v>
+        <v>1.481170271238986e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00134722971636671</v>
+        <v>0.000990106988304119</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9529106747053906</v>
+        <v>0.9374540654272564</v>
       </c>
       <c r="E23" t="n">
-        <v>7.257242628156306e-06</v>
+        <v>6.655175762929788e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01385558475190601</v>
+        <v>0.01147984229163047</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001976017789607276</v>
+        <v>0.0001735240498682004</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008750556014979929</v>
+        <v>0.001165943660253697</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01207262794555842</v>
+        <v>0.03815656244500892</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00465030516675688</v>
+        <v>0.00246104553321305</v>
       </c>
       <c r="K23" t="n">
-        <v>2.290697223143778e-14</v>
+        <v>2.698623036854384e-14</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01403738891318926</v>
+        <v>0.008097442725963012</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9529106747053906</v>
+        <v>0.9374540654272564</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1680,44 +1680,44 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88016.fa</t>
+          <t>even_MAG-GUT86758.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.53599816930862e-05</v>
+        <v>4.627417772244443e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0006111991536522789</v>
+        <v>0.00134722971636671</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9554121465849292</v>
+        <v>0.9529106747053906</v>
       </c>
       <c r="E24" t="n">
-        <v>5.361180625415238e-06</v>
+        <v>7.257242628156306e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>0.009037107256557719</v>
+        <v>0.01385558475190601</v>
       </c>
       <c r="G24" t="n">
-        <v>9.50890195761396e-05</v>
+        <v>0.0001976017789607276</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009533461271288688</v>
+        <v>0.0008750556014979929</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02085763508809537</v>
+        <v>0.01207262794555842</v>
       </c>
       <c r="J24" t="n">
-        <v>0.003596376094055075</v>
+        <v>0.00465030516675688</v>
       </c>
       <c r="K24" t="n">
-        <v>2.264850052151076e-14</v>
+        <v>2.290697223143778e-14</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009416379513663952</v>
+        <v>0.01403738891318926</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9554121465849292</v>
+        <v>0.9529106747053906</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1733,53 +1733,53 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89050.fa</t>
+          <t>even_MAG-GUT88016.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001415093640758307</v>
+        <v>1.53599816930862e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003791749726598645</v>
+        <v>0.0006111991536522789</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0006121688421106854</v>
+        <v>0.9554121465849292</v>
       </c>
       <c r="E25" t="n">
-        <v>2.28636487952239e-06</v>
+        <v>5.361180625415238e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>0.005997034908255513</v>
+        <v>0.009037107256557719</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001184106891453764</v>
+        <v>9.50890195761396e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0002836453866896193</v>
+        <v>0.0009533461271288688</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.02085763508809537</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002652945939867123</v>
+        <v>0.003596376094055075</v>
       </c>
       <c r="K25" t="n">
-        <v>2.220439467173154e-14</v>
+        <v>2.264850052151076e-14</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915099850533084e-05</v>
+        <v>0.009416379513663952</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.9554121465849292</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
@@ -1885,104 +1885,104 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89164.fa</t>
+          <t>even_MAG-GUT89246.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.001415093640758307</v>
+        <v>0.01100568316691806</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003791749726598645</v>
+        <v>0.08495958897039332</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0006121688421106854</v>
+        <v>0.04820464213337565</v>
       </c>
       <c r="E28" t="n">
-        <v>2.28636487952239e-06</v>
+        <v>0.04283853811490505</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005997034908255513</v>
+        <v>0.02352530408263289</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001184106891453764</v>
+        <v>0.01047169013578344</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0002836453866896193</v>
+        <v>0.01398463067002021</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.01876058103819897</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002652945939867123</v>
+        <v>0.3300613891039869</v>
       </c>
       <c r="K28" t="n">
-        <v>2.220439467173154e-14</v>
+        <v>0.4056591038582579</v>
       </c>
       <c r="L28" t="n">
-        <v>7.915099850533084e-05</v>
+        <v>0.0105288487255276</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.4056591038582579</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89244.fa</t>
+          <t>even_MAG-GUT89282.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0009426957868371414</v>
+        <v>0.0112370378299324</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004770417799943885</v>
+        <v>0.0133241058529673</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0007737351658180665</v>
+        <v>0.09869693258164676</v>
       </c>
       <c r="E29" t="n">
-        <v>5.466644305269896e-06</v>
+        <v>0.01125422767776126</v>
       </c>
       <c r="F29" t="n">
-        <v>0.006108321309711289</v>
+        <v>0.01760755512553987</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0005546351040688079</v>
+        <v>0.01150780410408856</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0002434436865280381</v>
+        <v>0.01238836178127843</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9803894287176004</v>
+        <v>0.520870979260787</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005935143021904311</v>
+        <v>0.0125645171398277</v>
       </c>
       <c r="K29" t="n">
-        <v>2.220516768934647e-14</v>
+        <v>0.2752763332453698</v>
       </c>
       <c r="L29" t="n">
-        <v>0.000276712763260538</v>
+        <v>0.015272145400801</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9803894287176004</v>
+        <v>0.520870979260787</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -1991,51 +1991,51 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89246.fa</t>
+          <t>even_MAG-GUT89309.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01100568316691806</v>
+        <v>0.010260947608662</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08495958897039332</v>
+        <v>0.01273723037269214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04820464213337565</v>
+        <v>0.09016089011379524</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04283853811490505</v>
+        <v>0.010309728437841</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02352530408263289</v>
+        <v>0.0273314658303798</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01047169013578344</v>
+        <v>0.01026353256875712</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01398463067002021</v>
+        <v>0.0105251318902704</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01876058103819897</v>
+        <v>0.1174659834477478</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3300613891039869</v>
+        <v>0.1423688368064361</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4056591038582579</v>
+        <v>0.4957940699204563</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0105288487255276</v>
+        <v>0.07278218300296194</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4056591038582579</v>
+        <v>0.4957940699204563</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2044,104 +2044,104 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89282.fa</t>
+          <t>even_MAG-GUT89335.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0112370378299324</v>
+        <v>0.01049070241963362</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0133241058529673</v>
+        <v>0.01514866581946146</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09869693258164676</v>
+        <v>0.06930240505558828</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01125422767776126</v>
+        <v>0.0105854836861379</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01760755512553987</v>
+        <v>0.02430392092155125</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01150780410408856</v>
+        <v>0.01062806160137945</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01238836178127843</v>
+        <v>0.01079120379525331</v>
       </c>
       <c r="I31" t="n">
-        <v>0.520870979260787</v>
+        <v>0.285353771094885</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0125645171398277</v>
+        <v>0.04130554885834459</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2752763332453698</v>
+        <v>0.4609798606597634</v>
       </c>
       <c r="L31" t="n">
-        <v>0.015272145400801</v>
+        <v>0.06111037608800172</v>
       </c>
       <c r="M31" t="n">
-        <v>0.520870979260787</v>
+        <v>0.4609798606597634</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus(reject)</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89309.fa</t>
+          <t>even_MAG-GUT89577.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.010260947608662</v>
+        <v>0.01119305291366049</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01273723037269214</v>
+        <v>0.01331324775529882</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09016089011379524</v>
+        <v>0.06578630176807002</v>
       </c>
       <c r="E32" t="n">
-        <v>0.010309728437841</v>
+        <v>0.01120919273918972</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0273314658303798</v>
+        <v>0.01657317793684328</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01026353256875712</v>
+        <v>0.01136952868302978</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0105251318902704</v>
+        <v>0.01191807865533912</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1174659834477478</v>
+        <v>0.4516240667823514</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1423688368064361</v>
+        <v>0.01833919389972132</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4957940699204563</v>
+        <v>0.369927130209242</v>
       </c>
       <c r="L32" t="n">
-        <v>0.07278218300296194</v>
+        <v>0.01874702865725414</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4957940699204563</v>
+        <v>0.4516240667823514</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2150,51 +2150,51 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89335.fa</t>
+          <t>even_MAG-GUT89735.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01049070241963362</v>
+        <v>0.01034313554366345</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01514866581946146</v>
+        <v>0.0126627764827718</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06930240505558828</v>
+        <v>0.1380085028437634</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0105854836861379</v>
+        <v>0.01043169014027065</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02430392092155125</v>
+        <v>0.02393344816942748</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01062806160137945</v>
+        <v>0.01046722552993149</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01079120379525331</v>
+        <v>0.01069973747143436</v>
       </c>
       <c r="I33" t="n">
-        <v>0.285353771094885</v>
+        <v>0.1317100576822369</v>
       </c>
       <c r="J33" t="n">
-        <v>0.04130554885834459</v>
+        <v>0.0525966978565096</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4609798606597634</v>
+        <v>0.5309926632986616</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06111037608800172</v>
+        <v>0.06815406498132942</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4609798606597634</v>
+        <v>0.5309926632986616</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2203,104 +2203,104 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89577.fa</t>
+          <t>even_MAG-GUT89747.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01119305291366049</v>
+        <v>3.814184934513219e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01331324775529882</v>
+        <v>0.008551291263668163</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06578630176807002</v>
+        <v>0.1269463698610429</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01120919273918972</v>
+        <v>3.092009351818747e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01657317793684328</v>
+        <v>0.01219973389347253</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01136952868302978</v>
+        <v>0.00079665090736532</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01191807865533912</v>
+        <v>0.006247537709080464</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4516240667823514</v>
+        <v>0.8409026869484261</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01833919389972132</v>
+        <v>0.00225321251790511</v>
       </c>
       <c r="K34" t="n">
-        <v>0.369927130209242</v>
+        <v>5.464117294420293e-14</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01874702865725414</v>
+        <v>0.002071215386973147</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4516240667823514</v>
+        <v>0.8409026869484261</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89735.fa</t>
+          <t>even_MAG-GUT89784.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01034313554366345</v>
+        <v>0.0108708278565323</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0126627764827718</v>
+        <v>0.06328900138846785</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1380085028437634</v>
+        <v>0.1045719437678585</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01043169014027065</v>
+        <v>0.02216061093029743</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02393344816942748</v>
+        <v>0.03256342936102721</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01046722552993149</v>
+        <v>0.01047248067075723</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01069973747143436</v>
+        <v>0.01177065576946925</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1317100576822369</v>
+        <v>0.01844219416971989</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0525966978565096</v>
+        <v>0.2445620260611379</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5309926632986616</v>
+        <v>0.4707739686630039</v>
       </c>
       <c r="L35" t="n">
-        <v>0.06815406498132942</v>
+        <v>0.01052286136172855</v>
       </c>
       <c r="M35" t="n">
-        <v>0.5309926632986616</v>
+        <v>0.4707739686630039</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2309,104 +2309,104 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89747.fa</t>
+          <t>even_MAG-GUT89815.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.814184934513219e-07</v>
+        <v>0.01085426472791652</v>
       </c>
       <c r="C36" t="n">
-        <v>0.008551291263668163</v>
+        <v>0.03452319108891463</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1269463698610429</v>
+        <v>0.1497823105948906</v>
       </c>
       <c r="E36" t="n">
-        <v>3.092009351818747e-05</v>
+        <v>0.05814514391947246</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01219973389347253</v>
+        <v>0.03718559912991801</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00079665090736532</v>
+        <v>0.01047246471189707</v>
       </c>
       <c r="H36" t="n">
-        <v>0.006247537709080464</v>
+        <v>0.01202583005843089</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8409026869484261</v>
+        <v>0.01642371031101362</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00225321251790511</v>
+        <v>0.09147954409344583</v>
       </c>
       <c r="K36" t="n">
-        <v>5.464117294420293e-14</v>
+        <v>0.5687285243265691</v>
       </c>
       <c r="L36" t="n">
-        <v>0.002071215386973147</v>
+        <v>0.01037941703753114</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8409026869484261</v>
+        <v>0.5687285243265691</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89772.fa</t>
+          <t>even_MAG-GUT89833.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.00335608167272781</v>
+        <v>0.01078063737082447</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002999687043057307</v>
+        <v>0.01191110587286283</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0008833975249691442</v>
+        <v>0.09940484475544532</v>
       </c>
       <c r="E37" t="n">
-        <v>4.503706197775134e-06</v>
+        <v>0.01079726874582168</v>
       </c>
       <c r="F37" t="n">
-        <v>0.006791707701033678</v>
+        <v>0.01673382957839157</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001634493324375794</v>
+        <v>0.01123786437666015</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0003864351920567799</v>
+        <v>0.0121116779497219</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9807453153770508</v>
+        <v>0.6386624561250011</v>
       </c>
       <c r="J37" t="n">
-        <v>0.003055042506884873</v>
+        <v>0.01170976816088874</v>
       </c>
       <c r="K37" t="n">
-        <v>2.220484121297988e-14</v>
+        <v>0.1627784588969511</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0001433359516239222</v>
+        <v>0.01387208816743123</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9807453153770508</v>
+        <v>0.6386624561250011</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2415,51 +2415,51 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89815.fa</t>
+          <t>even_MAG-GUT89852.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01085426472791652</v>
+        <v>0.0116025935676217</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03452319108891463</v>
+        <v>0.04369718277554564</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1497823105948906</v>
+        <v>0.1833446500257849</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05814514391947246</v>
+        <v>0.02317737470627959</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03718559912991801</v>
+        <v>0.03515875055627773</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01047246471189707</v>
+        <v>0.01052354070121642</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01202583005843089</v>
+        <v>0.01224164868352752</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01642371031101362</v>
+        <v>0.01894529015024433</v>
       </c>
       <c r="J38" t="n">
-        <v>0.09147954409344583</v>
+        <v>0.1301576692681732</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5687285243265691</v>
+        <v>0.5206803391274667</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01037941703753114</v>
+        <v>0.01047096043786228</v>
       </c>
       <c r="M38" t="n">
-        <v>0.5687285243265691</v>
+        <v>0.5206803391274667</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2468,157 +2468,157 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89816.fa</t>
+          <t>even_MAG-GUT90020.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.001415093640758307</v>
+        <v>0.01395715966569538</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003791749726598645</v>
+        <v>0.05737947022848596</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0006121688421106854</v>
+        <v>0.1869500463227385</v>
       </c>
       <c r="E39" t="n">
-        <v>2.28636487952239e-06</v>
+        <v>0.03059328883034543</v>
       </c>
       <c r="F39" t="n">
-        <v>0.005997034908255513</v>
+        <v>0.03078652161518296</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001184106891453764</v>
+        <v>0.01164547557786881</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0002836453866896193</v>
+        <v>0.01324192666664936</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.02213059008149139</v>
       </c>
       <c r="J39" t="n">
-        <v>0.002652945939867123</v>
+        <v>0.04599586729894525</v>
       </c>
       <c r="K39" t="n">
-        <v>2.220439467173154e-14</v>
+        <v>0.5770451906998789</v>
       </c>
       <c r="L39" t="n">
-        <v>7.915099850533084e-05</v>
+        <v>0.01027446301271825</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.5770451906998789</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89833.fa</t>
+          <t>even_MAG-GUT90054.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01078063737082447</v>
+        <v>0.01067678913686177</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01191110587286283</v>
+        <v>0.04008261108562673</v>
       </c>
       <c r="D40" t="n">
-        <v>0.09940484475544532</v>
+        <v>0.1306947497788319</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01079726874582168</v>
+        <v>0.03185481296882627</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01673382957839157</v>
+        <v>0.02936345584196505</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01123786437666015</v>
+        <v>0.01058230734631675</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0121116779497219</v>
+        <v>0.01277020289478888</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6386624561250011</v>
+        <v>0.015636636448847</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01170976816088874</v>
+        <v>0.1835532682045082</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1627784588969511</v>
+        <v>0.524282677074409</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01387208816743123</v>
+        <v>0.01050248921901843</v>
       </c>
       <c r="M40" t="n">
-        <v>0.6386624561250011</v>
+        <v>0.524282677074409</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus(reject)</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89851.fa</t>
+          <t>even_MAG-GUT90090.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001415093640758307</v>
+        <v>0.01052860200587692</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003791749726598645</v>
+        <v>0.0138796450115555</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0006121688421106854</v>
+        <v>0.07926790732379754</v>
       </c>
       <c r="E41" t="n">
-        <v>2.28636487952239e-06</v>
+        <v>0.01057420611640812</v>
       </c>
       <c r="F41" t="n">
-        <v>0.005997034908255513</v>
+        <v>0.01792953373696575</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001184106891453764</v>
+        <v>0.01235887534077112</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0002836453866896193</v>
+        <v>0.01163405997752153</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.6676504809946515</v>
       </c>
       <c r="J41" t="n">
-        <v>0.002652945939867123</v>
+        <v>0.01179246249114531</v>
       </c>
       <c r="K41" t="n">
-        <v>2.220439467173154e-14</v>
+        <v>0.1485280147372133</v>
       </c>
       <c r="L41" t="n">
-        <v>7.915099850533084e-05</v>
+        <v>0.0158562122640934</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.6676504809946515</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -2627,51 +2627,51 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90054.fa</t>
+          <t>even_MAG-GUT90362.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01067678913686177</v>
+        <v>0.01098802572904466</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04008261108562673</v>
+        <v>0.06492805763075986</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1306947497788319</v>
+        <v>0.1376205175091414</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03185481296882627</v>
+        <v>0.03578868259748089</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02936345584196505</v>
+        <v>0.02543356582348908</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01058230734631675</v>
+        <v>0.0105710100726378</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01277020289478888</v>
+        <v>0.01190233104710021</v>
       </c>
       <c r="I42" t="n">
-        <v>0.015636636448847</v>
+        <v>0.01978791912109747</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1835532682045082</v>
+        <v>0.1932836385770457</v>
       </c>
       <c r="K42" t="n">
-        <v>0.524282677074409</v>
+        <v>0.4793260648013353</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01050248921901843</v>
+        <v>0.01037018709086769</v>
       </c>
       <c r="M42" t="n">
-        <v>0.524282677074409</v>
+        <v>0.4793260648013353</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2680,369 +2680,369 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90090.fa</t>
+          <t>even_MAG-GUT90441.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01052860200587692</v>
+        <v>0.01290658600186261</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0138796450115555</v>
+        <v>0.07984231971854265</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07926790732379754</v>
+        <v>0.1218315847586998</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01057420611640812</v>
+        <v>0.03292412253957999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01792953373696575</v>
+        <v>0.02466447918099223</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01235887534077112</v>
+        <v>0.01039028240922809</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01163405997752153</v>
+        <v>0.01348228159854238</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6676504809946515</v>
+        <v>0.01974920261401512</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01179246249114531</v>
+        <v>0.1363191724114618</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1485280147372133</v>
+        <v>0.5376623272916271</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0158562122640934</v>
+        <v>0.01022764147544813</v>
       </c>
       <c r="M43" t="n">
-        <v>0.6676504809946515</v>
+        <v>0.5376623272916271</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus(reject)</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90143.fa</t>
+          <t>even_MAG-GUT90682.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001415093640758307</v>
+        <v>0.01090317900946171</v>
       </c>
       <c r="C44" t="n">
-        <v>0.003791749726598645</v>
+        <v>0.04496002366709689</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0006121688421106854</v>
+        <v>0.03962853139174521</v>
       </c>
       <c r="E44" t="n">
-        <v>2.28636487952239e-06</v>
+        <v>0.08441433094355985</v>
       </c>
       <c r="F44" t="n">
-        <v>0.005997034908255513</v>
+        <v>0.02133475217765644</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001184106891453764</v>
+        <v>0.0105372365579454</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0002836453866896193</v>
+        <v>0.0167700114248979</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.01508767773390697</v>
       </c>
       <c r="J44" t="n">
-        <v>0.002652945939867123</v>
+        <v>0.2039639589859034</v>
       </c>
       <c r="K44" t="n">
-        <v>2.220439467173154e-14</v>
+        <v>0.5419185463135057</v>
       </c>
       <c r="L44" t="n">
-        <v>7.915099850533084e-05</v>
+        <v>0.01048175179432055</v>
       </c>
       <c r="M44" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.5419185463135057</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90362.fa</t>
+          <t>even_MAG-GUT90694.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01098802572904466</v>
+        <v>6.38904220165039e-07</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06492805763075986</v>
+        <v>0.006224384859687153</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1376205175091414</v>
+        <v>0.1131065971805276</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03578868259748089</v>
+        <v>6.855150370498883e-05</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02543356582348908</v>
+        <v>0.0134732479099695</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0105710100726378</v>
+        <v>0.001351959448024706</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01190233104710021</v>
+        <v>0.00380416120841308</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01978791912109747</v>
+        <v>0.8567351539537539</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1932836385770457</v>
+        <v>0.001868366401615634</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4793260648013353</v>
+        <v>4.412454333345917e-14</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01037018709086769</v>
+        <v>0.003366938630039057</v>
       </c>
       <c r="M45" t="n">
-        <v>0.4793260648013353</v>
+        <v>0.8567351539537539</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90408.fa</t>
+          <t>even_MAG-GUT90941.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001415093640758307</v>
+        <v>0.01097158537367885</v>
       </c>
       <c r="C46" t="n">
-        <v>0.003791749726598645</v>
+        <v>0.05300179319871921</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0006121688421106854</v>
+        <v>0.09842864079233982</v>
       </c>
       <c r="E46" t="n">
-        <v>2.28636487952239e-06</v>
+        <v>0.0538249046430043</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005997034908255513</v>
+        <v>0.02891705785738067</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001184106891453764</v>
+        <v>0.0103294394203308</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002836453866896193</v>
+        <v>0.01339701221995354</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.01717741167738774</v>
       </c>
       <c r="J46" t="n">
-        <v>0.002652945939867123</v>
+        <v>0.1738354531101818</v>
       </c>
       <c r="K46" t="n">
-        <v>2.220439467173154e-14</v>
+        <v>0.5298508781152541</v>
       </c>
       <c r="L46" t="n">
-        <v>7.915099850533084e-05</v>
+        <v>0.0102658235917692</v>
       </c>
       <c r="M46" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.5298508781152541</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90442.fa</t>
+          <t>even_MAG-GUT90963.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0009426957868371414</v>
+        <v>0.0105512132727262</v>
       </c>
       <c r="C47" t="n">
-        <v>0.004770417799943885</v>
+        <v>0.09095370946070108</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0007737351658180665</v>
+        <v>0.04313153684447062</v>
       </c>
       <c r="E47" t="n">
-        <v>5.466644305269896e-06</v>
+        <v>0.08584436016685247</v>
       </c>
       <c r="F47" t="n">
-        <v>0.006108321309711289</v>
+        <v>0.017812828645508</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0005546351040688079</v>
+        <v>0.01049349883999265</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0002434436865280381</v>
+        <v>0.01694459994628597</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9803894287176004</v>
+        <v>0.01822532159949019</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005935143021904311</v>
+        <v>0.3243962755001952</v>
       </c>
       <c r="K47" t="n">
-        <v>2.220516768934647e-14</v>
+        <v>0.3712685072203155</v>
       </c>
       <c r="L47" t="n">
-        <v>0.000276712763260538</v>
+        <v>0.01037814850346183</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9803894287176004</v>
+        <v>0.3712685072203155</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90615.fa</t>
+          <t>even_MAG-GUT91014.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001415093640758307</v>
+        <v>0.01290658600186261</v>
       </c>
       <c r="C48" t="n">
-        <v>0.003791749726598645</v>
+        <v>0.07984231971854265</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0006121688421106854</v>
+        <v>0.1218315847586998</v>
       </c>
       <c r="E48" t="n">
-        <v>2.28636487952239e-06</v>
+        <v>0.03292412253957999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.005997034908255513</v>
+        <v>0.02466447918099223</v>
       </c>
       <c r="G48" t="n">
-        <v>0.001184106891453764</v>
+        <v>0.01039028240922809</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0002836453866896193</v>
+        <v>0.01348228159854238</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.01974920261401512</v>
       </c>
       <c r="J48" t="n">
-        <v>0.002652945939867123</v>
+        <v>0.1363191724114618</v>
       </c>
       <c r="K48" t="n">
-        <v>2.220439467173154e-14</v>
+        <v>0.5376623272916271</v>
       </c>
       <c r="L48" t="n">
-        <v>7.915099850533084e-05</v>
+        <v>0.01022764147544813</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.5376623272916271</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90683.fa</t>
+          <t>even_MAG-GUT91110.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001415093640758307</v>
+        <v>0.01078063737082447</v>
       </c>
       <c r="C49" t="n">
-        <v>0.003791749726598645</v>
+        <v>0.01191110587286283</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0006121688421106854</v>
+        <v>0.09940484475544532</v>
       </c>
       <c r="E49" t="n">
-        <v>2.28636487952239e-06</v>
+        <v>0.01079726874582168</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005997034908255513</v>
+        <v>0.01673382957839157</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001184106891453764</v>
+        <v>0.01123786437666015</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0002836453866896193</v>
+        <v>0.0121116779497219</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.6386624561250011</v>
       </c>
       <c r="J49" t="n">
-        <v>0.002652945939867123</v>
+        <v>0.01170976816088874</v>
       </c>
       <c r="K49" t="n">
-        <v>2.220439467173154e-14</v>
+        <v>0.1627784588969511</v>
       </c>
       <c r="L49" t="n">
-        <v>7.915099850533084e-05</v>
+        <v>0.01387208816743123</v>
       </c>
       <c r="M49" t="n">
-        <v>0.9839818173008592</v>
+        <v>0.6386624561250011</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3051,429 +3051,111 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90694.fa</t>
+          <t>even_MAG-GUT91702.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6.38904220165039e-07</v>
+        <v>0.01278732770862385</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006224384859687153</v>
+        <v>0.1297334366454167</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1131065971805276</v>
+        <v>0.02548198545912565</v>
       </c>
       <c r="E50" t="n">
-        <v>6.855150370498883e-05</v>
+        <v>0.01185764234826602</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0134732479099695</v>
+        <v>0.02384899414869571</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001351959448024706</v>
+        <v>0.01421053732629066</v>
       </c>
       <c r="H50" t="n">
-        <v>0.00380416120841308</v>
+        <v>0.01079798920488439</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8567351539537539</v>
+        <v>0.06667101628401956</v>
       </c>
       <c r="J50" t="n">
-        <v>0.001868366401615634</v>
+        <v>0.2454636036678635</v>
       </c>
       <c r="K50" t="n">
-        <v>4.412454333345917e-14</v>
+        <v>0.418970152074369</v>
       </c>
       <c r="L50" t="n">
-        <v>0.003366938630039057</v>
+        <v>0.040177315132445</v>
       </c>
       <c r="M50" t="n">
-        <v>0.8567351539537539</v>
+        <v>0.418970152074369</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90730.fa</t>
+          <t>even_MAG-GUT9692.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0108372195171746</v>
+        <v>0.003976693074137245</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06350011132808359</v>
+        <v>0.01195188967161232</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1099299414917072</v>
+        <v>0.09459714290968275</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02033049731664605</v>
+        <v>0.008658849650963186</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02404822932795691</v>
+        <v>0.01794645691779335</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01062234662979264</v>
+        <v>0.03639295178666735</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01329386976563204</v>
+        <v>0.0001699966444026197</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0151280656201441</v>
+        <v>0.8229880829843721</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3031922228002299</v>
+        <v>0.003101555942403132</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4184619899570069</v>
+        <v>2.224708991308863e-14</v>
       </c>
       <c r="L51" t="n">
-        <v>0.010655506245626</v>
+        <v>0.0002163804179436502</v>
       </c>
       <c r="M51" t="n">
-        <v>0.4184619899570069</v>
+        <v>0.8229880829843721</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
-        <is>
-          <t>g__Pediococcus</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90941.fa</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.01097158537367885</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.05300179319871921</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.09842864079233982</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.0538249046430043</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.02891705785738067</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.0103294394203308</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.01339701221995354</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.01717741167738774</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.1738354531101818</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.5298508781152541</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.0102658235917692</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.5298508781152541</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>g__Pediococcus</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>g__Pediococcus</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90963.fa</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.0105512132727262</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.09095370946070108</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.04313153684447062</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.08584436016685247</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.017812828645508</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.01049349883999265</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.01694459994628597</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.01822532159949019</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.3243962755001952</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.3712685072203155</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.01037814850346183</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.3712685072203155</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>g__Pediococcus</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>g__Pediococcus</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90996.fa</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.001415093640758307</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.003791749726598645</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.0006121688421106854</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2.28636487952239e-06</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.005997034908255513</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.001184106891453764</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.0002836453866896193</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.9839818173008592</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.002652945939867123</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2.220439467173154e-14</v>
-      </c>
-      <c r="L54" t="n">
-        <v>7.915099850533084e-05</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.9839818173008592</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>g__Ligilactobacillus</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>g__Ligilactobacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91012.fa</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.001415093640758307</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.003791749726598645</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.0006121688421106854</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2.28636487952239e-06</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.005997034908255513</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.001184106891453764</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.0002836453866896193</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.9839818173008592</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.002652945939867123</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2.220439467173154e-14</v>
-      </c>
-      <c r="L55" t="n">
-        <v>7.915099850533084e-05</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9839818173008592</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>g__Ligilactobacillus</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>g__Ligilactobacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91110.fa</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.01078063737082447</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.01191110587286283</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.09940484475544532</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.01079726874582168</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.01673382957839157</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.01123786437666015</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.0121116779497219</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.6386624561250011</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.01170976816088874</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.1627784588969511</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.01387208816743123</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.6386624561250011</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>g__Ligilactobacillus</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>g__Ligilactobacillus(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91793.fa</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.02058064985388913</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.005118106655934629</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.002326309441858695</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5.758252542465914e-05</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.009268946284302563</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.001055682418388736</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.0008329799264286293</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.9530002787335587</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.006821148265586059</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2.220637868809632e-14</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.0009383158946058411</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9530002787335587</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>g__Ligilactobacillus</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
         <is>
           <t>g__Ligilactobacillus</t>
         </is>

--- a/outputs-HGR-r202/f__Lactobacillaceae.xlsx
+++ b/outputs-HGR-r202/f__Lactobacillaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -553,6 +558,11 @@
           <t>g__Lacticaseibacillus</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>g__Lacticaseibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -601,6 +611,11 @@
           <t>g__Lacticaseibacillus</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>g__Lacticaseibacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -649,6 +664,11 @@
           <t>g__Lacticaseibacillus</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>g__Lacticaseibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -697,6 +717,11 @@
           <t>g__Limosilactobacillus</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>g__Limosilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -745,6 +770,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -793,6 +823,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -841,6 +876,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -889,6 +929,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -937,6 +982,11 @@
           <t>g__Limosilactobacillus</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>g__Limosilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -985,6 +1035,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1033,6 +1088,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1081,6 +1141,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1129,6 +1194,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1177,6 +1247,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1225,6 +1300,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1273,6 +1353,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1321,6 +1406,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1369,6 +1459,11 @@
           <t>g__Lacticaseibacillus</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>g__Lacticaseibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1417,6 +1512,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1465,6 +1565,11 @@
           <t>g__Lacticaseibacillus</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>g__Lacticaseibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1513,6 +1618,11 @@
           <t>g__Lacticaseibacillus</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>g__Lacticaseibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1561,6 +1671,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1609,6 +1724,11 @@
           <t>g__Limosilactobacillus</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>g__Limosilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1657,6 +1777,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1705,6 +1830,11 @@
           <t>g__Lacticaseibacillus</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>g__Lacticaseibacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1753,6 +1883,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1801,6 +1936,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1849,6 +1989,11 @@
           <t>g__Limosilactobacillus</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>g__Limosilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1897,6 +2042,11 @@
           <t>g__Limosilactobacillus</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>g__Limosilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1945,6 +2095,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1993,6 +2148,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2041,6 +2201,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2089,6 +2254,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2137,6 +2307,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2185,6 +2360,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2233,6 +2413,11 @@
           <t>g__Lacticaseibacillus</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>g__Lacticaseibacillus</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2281,6 +2466,11 @@
           <t>g__Limosilactobacillus</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>g__Limosilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2329,6 +2519,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2377,6 +2572,11 @@
           <t>g__Limosilactobacillus</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>g__Limosilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2425,6 +2625,11 @@
           <t>g__Limosilactobacillus</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>g__Limosilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2473,6 +2678,11 @@
           <t>g__Limosilactobacillus</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>g__Limosilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2521,6 +2731,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2569,6 +2784,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2617,6 +2837,11 @@
           <t>g__Lactobacillus</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2665,6 +2890,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2713,6 +2943,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2761,6 +2996,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2809,6 +3049,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2857,6 +3102,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2905,6 +3155,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2953,6 +3208,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3001,6 +3261,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3049,6 +3314,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3097,6 +3367,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3145,6 +3420,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3193,6 +3473,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3241,6 +3526,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3289,6 +3579,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3337,6 +3632,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3385,6 +3685,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3433,6 +3738,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -3481,6 +3791,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3529,6 +3844,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -3577,6 +3897,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -3625,6 +3950,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3673,6 +4003,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3721,6 +4056,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -3769,6 +4109,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3817,6 +4162,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3865,6 +4215,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3913,6 +4268,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3961,6 +4321,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4009,6 +4374,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4057,6 +4427,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -4105,6 +4480,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4153,6 +4533,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4201,6 +4586,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4249,6 +4639,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -4297,6 +4692,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -4345,6 +4745,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -4393,6 +4798,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -4441,6 +4851,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -4489,6 +4904,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -4537,6 +4957,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -4585,6 +5010,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -4633,6 +5063,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -4681,6 +5116,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -4729,6 +5169,11 @@
           <t>g__Pediococcus</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -4777,6 +5222,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -4825,6 +5275,11 @@
           <t>g__Ligilactobacillus</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -4869,6 +5324,11 @@
         <v>0.8229880829843721</v>
       </c>
       <c r="N92" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
         <is>
           <t>g__Ligilactobacillus</t>
         </is>

--- a/outputs-HGR-r202/f__Lactobacillaceae.xlsx
+++ b/outputs-HGR-r202/f__Lactobacillaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,362 +885,362 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3427.fa</t>
+          <t>even_MAG-GUT33836.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.010002544263685</v>
+        <v>0.0001725808810105432</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1258611777057409</v>
+        <v>0.006486594676009532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01878866756941867</v>
+        <v>0.1451431348689308</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01005101208954653</v>
+        <v>0.01571202319680703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02388896372610099</v>
+        <v>0.01678677712080005</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01074073716183596</v>
+        <v>0.02563826257623436</v>
       </c>
       <c r="H9" t="n">
-        <v>0.009770266738398181</v>
+        <v>0.000127337769868479</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3055635930276883</v>
+        <v>0.7871304026836745</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2206391614480416</v>
+        <v>0.002406241564868092</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1955455419068529</v>
+        <v>2.224163775704937e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06914833436269119</v>
+        <v>0.0003966446617744125</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3055635930276883</v>
+        <v>0.7871304026836745</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3435.fa</t>
+          <t>even_MAG-GUT34245.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01268018211599107</v>
+        <v>0.002270204281069313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1455795495423172</v>
+        <v>0.01325379619146234</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02142716887740134</v>
+        <v>0.09292717518127779</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01233194710177267</v>
+        <v>0.01844109349124225</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02464958889049187</v>
+        <v>0.02177123491006284</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01382233947108946</v>
+        <v>0.05241286283655334</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01059435727029458</v>
+        <v>0.0001883420743083823</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08020254129978367</v>
+        <v>0.7962594676164936</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2588825578488039</v>
+        <v>0.002253726156726395</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3672703172521868</v>
+        <v>2.223902627744406e-14</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05255945032986736</v>
+        <v>0.0002220972607814667</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3672703172521868</v>
+        <v>0.7962594676164936</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43936.fa</t>
+          <t>even_MAG-GUT3427.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.390150586265068e-05</v>
+        <v>0.010002544263685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001068807917804164</v>
+        <v>0.1258611777057409</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9197342856174817</v>
+        <v>0.01878866756941867</v>
       </c>
       <c r="E11" t="n">
-        <v>1.024005981079375e-05</v>
+        <v>0.01005101208954653</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0174364488483572</v>
+        <v>0.02388896372610099</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003086897718031741</v>
+        <v>0.01074073716183596</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001400588071818973</v>
+        <v>0.009770266738398181</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03376673770277798</v>
+        <v>0.3055635930276883</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006915453112529945</v>
+        <v>0.2206391614480416</v>
       </c>
       <c r="K11" t="n">
-        <v>3.177948375736956e-14</v>
+        <v>0.1955455419068529</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01932484739172164</v>
+        <v>0.06914833436269119</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9197342856174817</v>
+        <v>0.3055635930276883</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47179.fa</t>
+          <t>even_MAG-GUT3435.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.870159994115665e-05</v>
+        <v>0.01268018211599107</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0104365479500819</v>
+        <v>0.1455795495423172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05231142393172172</v>
+        <v>0.02142716887740134</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0007450265277552151</v>
+        <v>0.01233194710177267</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01495387736175749</v>
+        <v>0.02464958889049187</v>
       </c>
       <c r="G12" t="n">
-        <v>2.129790639147409e-05</v>
+        <v>0.01382233947108946</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000409390172573585</v>
+        <v>0.01059435727029458</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002898980515751277</v>
+        <v>0.08020254129978367</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8670426492522644</v>
+        <v>0.2588825578488039</v>
       </c>
       <c r="K12" t="n">
-        <v>2.22208515309361e-14</v>
+        <v>0.3672703172521868</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05108210478173959</v>
+        <v>0.05255945032986736</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8670426492522644</v>
+        <v>0.3672703172521868</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48773.fa</t>
+          <t>even_MAG-GUT34540.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0382053405875081</v>
+        <v>0.0001644046137923378</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08817281301746172</v>
+        <v>0.002496060779786086</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01936322367537638</v>
+        <v>0.2764968039823107</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08233818593555559</v>
+        <v>0.01449029281645534</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02260386131998473</v>
+        <v>0.01752493348922163</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0109487826336341</v>
+        <v>0.04752200288558674</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01076536737762487</v>
+        <v>0.0001371736796257419</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1374338753679302</v>
+        <v>0.639169369492701</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1301203958498185</v>
+        <v>0.001511981869478446</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4441491816730068</v>
+        <v>2.225735643226731e-14</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01589897256209907</v>
+        <v>0.000486976391019709</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4441491816730068</v>
+        <v>0.639169369492701</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49010.fa</t>
+          <t>even_MAG-GUT43936.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06221130613131087</v>
+        <v>3.390150586265068e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01505764523523295</v>
+        <v>0.001068807917804164</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1072397077027584</v>
+        <v>0.9197342856174817</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0899590046010543</v>
+        <v>1.024005981079375e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02418814712231045</v>
+        <v>0.0174364488483572</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05603734107907424</v>
+        <v>0.0003086897718031741</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01513750830835468</v>
+        <v>0.001400588071818973</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03271243919799768</v>
+        <v>0.03376673770277798</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02002777437836699</v>
+        <v>0.006915453112529945</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5675452649779114</v>
+        <v>3.177948375736956e-14</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009883861265628053</v>
+        <v>0.01932484739172164</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5675452649779114</v>
+        <v>0.9197342856174817</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49487.fa</t>
+          <t>even_MAG-GUT47179.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01282327414188406</v>
+        <v>9.870159994115665e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09233011788099965</v>
+        <v>0.0104365479500819</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01268141060512649</v>
+        <v>0.05231142393172172</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02938716146633812</v>
+        <v>0.0007450265277552151</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02091585718932413</v>
+        <v>0.01495387736175749</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008101785589465163</v>
+        <v>2.129790639147409e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008037921076595386</v>
+        <v>0.000409390172573585</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06083620813762288</v>
+        <v>0.002898980515751277</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5898698565241843</v>
+        <v>0.8670426492522644</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09176516072411528</v>
+        <v>2.22208515309361e-14</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07325124666434459</v>
+        <v>0.05108210478173959</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5898698565241843</v>
+        <v>0.8670426492522644</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1256,150 +1256,150 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59278.fa</t>
+          <t>even_MAG-GUT48773.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.145411631634774e-05</v>
+        <v>0.0382053405875081</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001277470214483905</v>
+        <v>0.08817281301746172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9139695926463067</v>
+        <v>0.01936322367537638</v>
       </c>
       <c r="E16" t="n">
-        <v>9.282256935422515e-06</v>
+        <v>0.08233818593555559</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01452470733265128</v>
+        <v>0.02260386131998473</v>
       </c>
       <c r="G16" t="n">
-        <v>9.27431694382213e-05</v>
+        <v>0.0109487826336341</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00105166679104774</v>
+        <v>0.01076536737762487</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06272848487890292</v>
+        <v>0.1374338753679302</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00333767436679044</v>
+        <v>0.1301203958498185</v>
       </c>
       <c r="K16" t="n">
-        <v>2.476065614000711e-14</v>
+        <v>0.4441491816730068</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002996924227102174</v>
+        <v>0.01589897256209907</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9139695926463067</v>
+        <v>0.4441491816730068</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60365.fa</t>
+          <t>even_MAG-GUT49010.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.547582943421858e-05</v>
+        <v>0.06221130613131087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02323732122605328</v>
+        <v>0.01505764523523295</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1073469974921308</v>
+        <v>0.1072397077027584</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002005221450135106</v>
+        <v>0.0899590046010543</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01849954528260002</v>
+        <v>0.02418814712231045</v>
       </c>
       <c r="G17" t="n">
-        <v>1.712829792877022e-05</v>
+        <v>0.05603734107907424</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003700476400932011</v>
+        <v>0.01513750830835468</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002916277221263732</v>
+        <v>0.03271243919799768</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8371732170714659</v>
+        <v>0.02002777437836699</v>
       </c>
       <c r="K17" t="n">
-        <v>2.222287164028448e-14</v>
+        <v>0.5675452649779114</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008338768488872862</v>
+        <v>0.009883861265628053</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8371732170714659</v>
+        <v>0.5675452649779114</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61176.fa</t>
+          <t>even_MAG-GUT49487.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.716000095249519e-05</v>
+        <v>0.01282327414188406</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0173423343005368</v>
+        <v>0.09233011788099965</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08685907172279109</v>
+        <v>0.01268141060512649</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002830463303803351</v>
+        <v>0.02938716146633812</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02302476540241382</v>
+        <v>0.02091585718932413</v>
       </c>
       <c r="G18" t="n">
-        <v>7.434557715037341e-06</v>
+        <v>0.008101785589465163</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0005135898850530247</v>
+        <v>0.008037921076595386</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003901266406834282</v>
+        <v>0.06083620813762288</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8598224394040463</v>
+        <v>0.5898698565241843</v>
       </c>
       <c r="K18" t="n">
-        <v>2.22151073777733e-14</v>
+        <v>0.09176516072411528</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00560147501583149</v>
+        <v>0.07325124666434459</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8598224394040463</v>
+        <v>0.5898698565241843</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1408,51 +1408,51 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Limosilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62924.fa</t>
+          <t>even_MAG-GUT59278.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.697119779788845e-05</v>
+        <v>1.145411631634774e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001704562128516307</v>
+        <v>0.001277470214483905</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7725343446730043</v>
+        <v>0.9139695926463067</v>
       </c>
       <c r="E19" t="n">
-        <v>1.305872912053656e-05</v>
+        <v>9.282256935422515e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02118212359696671</v>
+        <v>0.01452470733265128</v>
       </c>
       <c r="G19" t="n">
-        <v>1.27374755495905e-05</v>
+        <v>9.27431694382213e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0005904770887846992</v>
+        <v>0.00105166679104774</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03759589607354712</v>
+        <v>0.06272848487890292</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1537015976376557</v>
+        <v>0.00333767436679044</v>
       </c>
       <c r="K19" t="n">
-        <v>2.561978887039018e-14</v>
+        <v>2.476065614000711e-14</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01257823139903128</v>
+        <v>0.002996924227102174</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7725343446730043</v>
+        <v>0.9139695926463067</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1468,150 +1468,150 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62939.fa</t>
+          <t>even_MAG-GUT60365.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.624594368431014e-06</v>
+        <v>9.547582943421858e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004985401724712312</v>
+        <v>0.02323732122605328</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9498899615420342</v>
+        <v>0.1073469974921308</v>
       </c>
       <c r="E20" t="n">
-        <v>2.996010537145404e-06</v>
+        <v>0.002005221450135106</v>
       </c>
       <c r="F20" t="n">
-        <v>0.006560679102616461</v>
+        <v>0.01849954528260002</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002657620330994741</v>
+        <v>1.712829792877022e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008351261118532795</v>
+        <v>0.0003700476400932011</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03982062904572942</v>
+        <v>0.002916277221263732</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0007278837203819943</v>
+        <v>0.8371732170714659</v>
       </c>
       <c r="K20" t="n">
-        <v>2.220311279237905e-14</v>
+        <v>2.222287164028448e-14</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001393797666886128</v>
+        <v>0.008338768488872862</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9498899615420342</v>
+        <v>0.8371732170714659</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63100.fa</t>
+          <t>even_MAG-GUT61176.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.808355072525094e-05</v>
+        <v>9.716000095249519e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00111193141354858</v>
+        <v>0.0173423343005368</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9072971780191326</v>
+        <v>0.08685907172279109</v>
       </c>
       <c r="E21" t="n">
-        <v>8.716388721226402e-06</v>
+        <v>0.002830463303803351</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01363514996100734</v>
+        <v>0.02302476540241382</v>
       </c>
       <c r="G21" t="n">
-        <v>8.643518996382854e-05</v>
+        <v>7.434557715037341e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001038157013778666</v>
+        <v>0.0005135898850530247</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06461755529226348</v>
+        <v>0.003901266406834282</v>
       </c>
       <c r="J21" t="n">
-        <v>0.007149889461308354</v>
+        <v>0.8598224394040463</v>
       </c>
       <c r="K21" t="n">
-        <v>2.487974629654025e-14</v>
+        <v>2.22151073777733e-14</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005036903709525838</v>
+        <v>0.00560147501583149</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9072971780191326</v>
+        <v>0.8598224394040463</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63356.fa</t>
+          <t>even_MAG-GUT62924.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.670599937751891e-05</v>
+        <v>8.697119779788845e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002018922361262589</v>
+        <v>0.001704562128516307</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9074385043416766</v>
+        <v>0.7725343446730043</v>
       </c>
       <c r="E22" t="n">
-        <v>2.821404513918041e-05</v>
+        <v>1.305872912053656e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0139275184847864</v>
+        <v>0.02118212359696671</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0005162875972031522</v>
+        <v>1.27374755495905e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009315186922800899</v>
+        <v>0.0005904770887846992</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06545446176954642</v>
+        <v>0.03759589607354712</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005601125381350622</v>
+        <v>0.1537015976376557</v>
       </c>
       <c r="K22" t="n">
-        <v>2.517631847320134e-14</v>
+        <v>2.561978887039018e-14</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004066741327352185</v>
+        <v>0.01257823139903128</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9074385043416766</v>
+        <v>0.7725343446730043</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1627,44 +1627,44 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63462.fa</t>
+          <t>even_MAG-GUT62939.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.000175191746509234</v>
+        <v>4.624594368431014e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002054602696258527</v>
+        <v>0.0004985401724712312</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6774061944349512</v>
+        <v>0.9498899615420342</v>
       </c>
       <c r="E23" t="n">
-        <v>7.367130786060218e-05</v>
+        <v>2.996010537145404e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03389933979072686</v>
+        <v>0.006560679102616461</v>
       </c>
       <c r="G23" t="n">
-        <v>2.716927721330803e-05</v>
+        <v>0.0002657620330994741</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007607882168120735</v>
+        <v>0.0008351261118532795</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02965061019801684</v>
+        <v>0.03982062904572942</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2268869127955365</v>
+        <v>0.0007278837203819943</v>
       </c>
       <c r="K23" t="n">
-        <v>3.041427950908629e-14</v>
+        <v>2.220311279237905e-14</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02906551953608451</v>
+        <v>0.001393797666886128</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6774061944349512</v>
+        <v>0.9498899615420342</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1680,44 +1680,44 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63569.fa</t>
+          <t>even_MAG-GUT63100.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001655545845060078</v>
+        <v>1.808355072525094e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002249083716891352</v>
+        <v>0.00111193141354858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.831485907965084</v>
+        <v>0.9072971780191326</v>
       </c>
       <c r="E24" t="n">
-        <v>3.992789841099515e-05</v>
+        <v>8.716388721226402e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02883205948150683</v>
+        <v>0.01363514996100734</v>
       </c>
       <c r="G24" t="n">
-        <v>8.121010261481698e-05</v>
+        <v>8.643518996382854e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001038632894101875</v>
+        <v>0.001038157013778666</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05905357046736352</v>
+        <v>0.06461755529226348</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06105812701283363</v>
+        <v>0.007149889461308354</v>
       </c>
       <c r="K24" t="n">
-        <v>3.443752766205032e-14</v>
+        <v>2.487974629654025e-14</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01599592587665259</v>
+        <v>0.005036903709525838</v>
       </c>
       <c r="M24" t="n">
-        <v>0.831485907965084</v>
+        <v>0.9072971780191326</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1733,203 +1733,203 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69384.fa</t>
+          <t>even_MAG-GUT63356.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01009376766308832</v>
+        <v>1.670599937751891e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02362582186512398</v>
+        <v>0.002018922361262589</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06679266934976115</v>
+        <v>0.9074385043416766</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03893615826325605</v>
+        <v>2.821404513918041e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01867942552064792</v>
+        <v>0.0139275184847864</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007233517362313342</v>
+        <v>0.0005162875972031522</v>
       </c>
       <c r="H25" t="n">
-        <v>0.008633120729840946</v>
+        <v>0.0009315186922800899</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02667426453639347</v>
+        <v>0.06545446176954642</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7237002270794385</v>
+        <v>0.005601125381350622</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06531611560735756</v>
+        <v>2.517631847320134e-14</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01031491202277891</v>
+        <v>0.004066741327352185</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7237002270794385</v>
+        <v>0.9074385043416766</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7285.fa</t>
+          <t>even_MAG-GUT63462.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01099441987149144</v>
+        <v>0.000175191746509234</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01273226685535707</v>
+        <v>0.002054602696258527</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09435497910304157</v>
+        <v>0.6774061944349512</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01101382542387712</v>
+        <v>7.367130786060218e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01716897986905781</v>
+        <v>0.03389933979072686</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01149506930593663</v>
+        <v>2.716927721330803e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01221769523434441</v>
+        <v>0.0007607882168120735</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6101275321079735</v>
+        <v>0.02965061019801684</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01216520633252057</v>
+        <v>0.2268869127955365</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1926191407385078</v>
+        <v>3.041427950908629e-14</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01511088515789204</v>
+        <v>0.02906551953608451</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6101275321079735</v>
+        <v>0.6774061944349512</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Lactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76426.fa</t>
+          <t>even_MAG-GUT63569.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0002743343499091331</v>
+        <v>0.0001655545845060078</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005415820763815265</v>
+        <v>0.002249083716891352</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07954403360035779</v>
+        <v>0.831485907965084</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001721961841694533</v>
+        <v>3.992789841099515e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02592778187861228</v>
+        <v>0.02883205948150683</v>
       </c>
       <c r="G27" t="n">
-        <v>1.388759213111837e-05</v>
+        <v>8.121010261481698e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001124617246401445</v>
+        <v>0.001038632894101875</v>
       </c>
       <c r="I27" t="n">
-        <v>0.006775036380850554</v>
+        <v>0.05905357046736352</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8547682080727254</v>
+        <v>0.06105812701283363</v>
       </c>
       <c r="K27" t="n">
-        <v>2.493201598499318e-14</v>
+        <v>3.443752766205032e-14</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02443431827347761</v>
+        <v>0.01599592587665259</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8547682080727254</v>
+        <v>0.831485907965084</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83501.fa</t>
+          <t>even_MAG-GUT69384.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0001180419270985322</v>
+        <v>0.01009376766308832</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02034143836248719</v>
+        <v>0.02362582186512398</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05378715116974318</v>
+        <v>0.06679266934976115</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03109086669356602</v>
+        <v>0.03893615826325605</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01332576201435438</v>
+        <v>0.01867942552064792</v>
       </c>
       <c r="G28" t="n">
-        <v>1.260800694062742e-05</v>
+        <v>0.007233517362313342</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0004424310938882732</v>
+        <v>0.008633120729840946</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01090856902191591</v>
+        <v>0.02667426453639347</v>
       </c>
       <c r="J28" t="n">
-        <v>0.865820209010828</v>
+        <v>0.7237002270794385</v>
       </c>
       <c r="K28" t="n">
-        <v>2.222499341382482e-14</v>
+        <v>0.06531611560735756</v>
       </c>
       <c r="L28" t="n">
-        <v>0.004152922699155553</v>
+        <v>0.01031491202277891</v>
       </c>
       <c r="M28" t="n">
-        <v>0.865820209010828</v>
+        <v>0.7237002270794385</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1945,521 +1945,521 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83507.fa</t>
+          <t>even_MAG-GUT7285.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0001440128006151015</v>
+        <v>0.01099441987149144</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01115545474659354</v>
+        <v>0.01273226685535707</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04216566602210482</v>
+        <v>0.09435497910304157</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002108037576698078</v>
+        <v>0.01101382542387712</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01234418874621693</v>
+        <v>0.01716897986905781</v>
       </c>
       <c r="G29" t="n">
-        <v>4.189917739557564e-06</v>
+        <v>0.01149506930593663</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0006037320926426935</v>
+        <v>0.01221769523434441</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002789270952566767</v>
+        <v>0.6101275321079735</v>
       </c>
       <c r="J29" t="n">
-        <v>0.920002259047341</v>
+        <v>0.01216520633252057</v>
       </c>
       <c r="K29" t="n">
-        <v>2.221643146549182e-14</v>
+        <v>0.1926191407385078</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008683188097459287</v>
+        <v>0.01511088515789204</v>
       </c>
       <c r="M29" t="n">
-        <v>0.920002259047341</v>
+        <v>0.6101275321079735</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>g__Limosilactobacillus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86747.fa</t>
+          <t>even_MAG-GUT76426.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.481170271238986e-05</v>
+        <v>0.0002743343499091331</v>
       </c>
       <c r="C30" t="n">
-        <v>0.000990106988304119</v>
+        <v>0.005415820763815265</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9374540654272564</v>
+        <v>0.07954403360035779</v>
       </c>
       <c r="E30" t="n">
-        <v>6.655175762929788e-06</v>
+        <v>0.001721961841694533</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01147984229163047</v>
+        <v>0.02592778187861228</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0001735240498682004</v>
+        <v>1.388759213111837e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001165943660253697</v>
+        <v>0.001124617246401445</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03815656244500892</v>
+        <v>0.006775036380850554</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00246104553321305</v>
+        <v>0.8547682080727254</v>
       </c>
       <c r="K30" t="n">
-        <v>2.698623036854384e-14</v>
+        <v>2.493201598499318e-14</v>
       </c>
       <c r="L30" t="n">
-        <v>0.008097442725963012</v>
+        <v>0.02443431827347761</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9374540654272564</v>
+        <v>0.8547682080727254</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86758.fa</t>
+          <t>even_MAG-GUT80232.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.627417772244443e-05</v>
+        <v>0.001346075551030601</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00134722971636671</v>
+        <v>0.003818216736018626</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9529106747053906</v>
+        <v>0.006298033075277838</v>
       </c>
       <c r="E31" t="n">
-        <v>7.257242628156306e-06</v>
+        <v>1.43063525795782e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01385558475190601</v>
+        <v>0.0007323434374227674</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001976017789607276</v>
+        <v>0.01366615553483328</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0008750556014979929</v>
+        <v>0.01754329832783124</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01207262794555842</v>
+        <v>0.000477387026943959</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00465030516675688</v>
+        <v>0.9559973081518385</v>
       </c>
       <c r="K31" t="n">
-        <v>2.290697223143778e-14</v>
+        <v>2.22019511693423e-14</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01403738891318926</v>
+        <v>0.0001197515235230165</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9529106747053906</v>
+        <v>0.9559973081518385</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88016.fa</t>
+          <t>even_MAG-GUT83501.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.53599816930862e-05</v>
+        <v>0.0001180419270985322</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0006111991536522789</v>
+        <v>0.02034143836248719</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9554121465849292</v>
+        <v>0.05378715116974318</v>
       </c>
       <c r="E32" t="n">
-        <v>5.361180625415238e-06</v>
+        <v>0.03109086669356602</v>
       </c>
       <c r="F32" t="n">
-        <v>0.009037107256557719</v>
+        <v>0.01332576201435438</v>
       </c>
       <c r="G32" t="n">
-        <v>9.50890195761396e-05</v>
+        <v>1.260800694062742e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0009533461271288688</v>
+        <v>0.0004424310938882732</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02085763508809537</v>
+        <v>0.01090856902191591</v>
       </c>
       <c r="J32" t="n">
-        <v>0.003596376094055075</v>
+        <v>0.865820209010828</v>
       </c>
       <c r="K32" t="n">
-        <v>2.264850052151076e-14</v>
+        <v>2.222499341382482e-14</v>
       </c>
       <c r="L32" t="n">
-        <v>0.009416379513663952</v>
+        <v>0.004152922699155553</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9554121465849292</v>
+        <v>0.865820209010828</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>g__Lactobacillus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89102.fa</t>
+          <t>even_MAG-GUT83507.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01100282378359483</v>
+        <v>0.0001440128006151015</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01274961940787005</v>
+        <v>0.01115545474659354</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1220920298676707</v>
+        <v>0.04216566602210482</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01102818237573145</v>
+        <v>0.002108037576698078</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01852479790643164</v>
+        <v>0.01234418874621693</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01120191733590011</v>
+        <v>4.189917739557564e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01170043561774185</v>
+        <v>0.0006037320926426935</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3247958216029469</v>
+        <v>0.002789270952566767</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0144914781501199</v>
+        <v>0.920002259047341</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4412976281140123</v>
+        <v>2.221643146549182e-14</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0211152658379802</v>
+        <v>0.008683188097459287</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4412976281140123</v>
+        <v>0.920002259047341</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Limosilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89162.fa</t>
+          <t>even_MAG-GUT86747.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01061833919811597</v>
+        <v>1.481170271238986e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03688979359865309</v>
+        <v>0.000990106988304119</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1503787040501124</v>
+        <v>0.9374540654272564</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02846733864905762</v>
+        <v>6.655175762929788e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03122547635413747</v>
+        <v>0.01147984229163047</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01061400775651884</v>
+        <v>0.0001735240498682004</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01206793581520386</v>
+        <v>0.001165943660253697</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01428860670963252</v>
+        <v>0.03815656244500892</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2845736037944493</v>
+        <v>0.00246104553321305</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4101923536356729</v>
+        <v>2.698623036854384e-14</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01068384043844612</v>
+        <v>0.008097442725963012</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4101923536356729</v>
+        <v>0.9374540654272564</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89246.fa</t>
+          <t>even_MAG-GUT86758.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01100568316691806</v>
+        <v>4.627417772244443e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08495958897039332</v>
+        <v>0.00134722971636671</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04820464213337565</v>
+        <v>0.9529106747053906</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04283853811490505</v>
+        <v>7.257242628156306e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02352530408263289</v>
+        <v>0.01385558475190601</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01047169013578344</v>
+        <v>0.0001976017789607276</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01398463067002021</v>
+        <v>0.0008750556014979929</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01876058103819897</v>
+        <v>0.01207262794555842</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3300613891039869</v>
+        <v>0.00465030516675688</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4056591038582579</v>
+        <v>2.290697223143778e-14</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0105288487255276</v>
+        <v>0.01403738891318926</v>
       </c>
       <c r="M35" t="n">
-        <v>0.4056591038582579</v>
+        <v>0.9529106747053906</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89255.fa</t>
+          <t>even_MAG-GUT88016.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.00924863589878331</v>
+        <v>1.53599816930862e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01417836514285556</v>
+        <v>0.0006111991536522789</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0415020459055573</v>
+        <v>0.9554121465849292</v>
       </c>
       <c r="E36" t="n">
-        <v>0.009322770759238019</v>
+        <v>5.361180625415238e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01715383250463699</v>
+        <v>0.009037107256557719</v>
       </c>
       <c r="G36" t="n">
-        <v>0.009580452186332159</v>
+        <v>9.50890195761396e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01022917387899874</v>
+        <v>0.0009533461271288688</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7841218188718517</v>
+        <v>0.02085763508809537</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01166092252926786</v>
+        <v>0.003596376094055075</v>
       </c>
       <c r="K36" t="n">
-        <v>0.08203414354429447</v>
+        <v>2.264850052151076e-14</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01096783877818379</v>
+        <v>0.009416379513663952</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7841218188718517</v>
+        <v>0.9554121465849292</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Lactobacillus</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89282.fa</t>
+          <t>even_MAG-GUT89102.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0112370378299324</v>
+        <v>0.01100282378359483</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0133241058529673</v>
+        <v>0.01274961940787005</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09869693258164676</v>
+        <v>0.1220920298676707</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01125422767776126</v>
+        <v>0.01102818237573145</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01760755512553987</v>
+        <v>0.01852479790643164</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01150780410408856</v>
+        <v>0.01120191733590011</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01238836178127843</v>
+        <v>0.01170043561774185</v>
       </c>
       <c r="I37" t="n">
-        <v>0.520870979260787</v>
+        <v>0.3247958216029469</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0125645171398277</v>
+        <v>0.0144914781501199</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2752763332453698</v>
+        <v>0.4412976281140123</v>
       </c>
       <c r="L37" t="n">
-        <v>0.015272145400801</v>
+        <v>0.0211152658379802</v>
       </c>
       <c r="M37" t="n">
-        <v>0.520870979260787</v>
+        <v>0.4412976281140123</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89309.fa</t>
+          <t>even_MAG-GUT89162.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.010260947608662</v>
+        <v>0.01061833919811597</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01273723037269214</v>
+        <v>0.03688979359865309</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09016089011379524</v>
+        <v>0.1503787040501124</v>
       </c>
       <c r="E38" t="n">
-        <v>0.010309728437841</v>
+        <v>0.02846733864905762</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0273314658303798</v>
+        <v>0.03122547635413747</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01026353256875712</v>
+        <v>0.01061400775651884</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0105251318902704</v>
+        <v>0.01206793581520386</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1174659834477478</v>
+        <v>0.01428860670963252</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1423688368064361</v>
+        <v>0.2845736037944493</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4957940699204563</v>
+        <v>0.4101923536356729</v>
       </c>
       <c r="L38" t="n">
-        <v>0.07278218300296194</v>
+        <v>0.01068384043844612</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4957940699204563</v>
+        <v>0.4101923536356729</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2475,44 +2475,44 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89335.fa</t>
+          <t>even_MAG-GUT89246.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01049070241963362</v>
+        <v>0.01100568316691806</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01514866581946146</v>
+        <v>0.08495958897039332</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06930240505558828</v>
+        <v>0.04820464213337565</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0105854836861379</v>
+        <v>0.04283853811490505</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02430392092155125</v>
+        <v>0.02352530408263289</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01062806160137945</v>
+        <v>0.01047169013578344</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01079120379525331</v>
+        <v>0.01398463067002021</v>
       </c>
       <c r="I39" t="n">
-        <v>0.285353771094885</v>
+        <v>0.01876058103819897</v>
       </c>
       <c r="J39" t="n">
-        <v>0.04130554885834459</v>
+        <v>0.3300613891039869</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4609798606597634</v>
+        <v>0.4056591038582579</v>
       </c>
       <c r="L39" t="n">
-        <v>0.06111037608800172</v>
+        <v>0.0105288487255276</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4609798606597634</v>
+        <v>0.4056591038582579</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2528,150 +2528,150 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89577.fa</t>
+          <t>even_MAG-GUT89255.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01119305291366049</v>
+        <v>0.00924863589878331</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01331324775529882</v>
+        <v>0.01417836514285556</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06578630176807002</v>
+        <v>0.0415020459055573</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01120919273918972</v>
+        <v>0.009322770759238019</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01657317793684328</v>
+        <v>0.01715383250463699</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01136952868302978</v>
+        <v>0.009580452186332159</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01191807865533912</v>
+        <v>0.01022917387899874</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4516240667823514</v>
+        <v>0.7841218188718517</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01833919389972132</v>
+        <v>0.01166092252926786</v>
       </c>
       <c r="K40" t="n">
-        <v>0.369927130209242</v>
+        <v>0.08203414354429447</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01874702865725414</v>
+        <v>0.01096783877818379</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4516240667823514</v>
+        <v>0.7841218188718517</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89608.fa</t>
+          <t>even_MAG-GUT89282.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01290893041022807</v>
+        <v>0.0112370378299324</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0506274999351064</v>
+        <v>0.0133241058529673</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06420533244543861</v>
+        <v>0.09869693258164676</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03000322187669455</v>
+        <v>0.01125422767776126</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02480309617155415</v>
+        <v>0.01760755512553987</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0105749833083944</v>
+        <v>0.01150780410408856</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01564968405247731</v>
+        <v>0.01238836178127843</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02064232205299611</v>
+        <v>0.520870979260787</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3567184489383558</v>
+        <v>0.0125645171398277</v>
       </c>
       <c r="K41" t="n">
-        <v>0.403333426106452</v>
+        <v>0.2752763332453698</v>
       </c>
       <c r="L41" t="n">
-        <v>0.01053305470230279</v>
+        <v>0.015272145400801</v>
       </c>
       <c r="M41" t="n">
-        <v>0.403333426106452</v>
+        <v>0.520870979260787</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89735.fa</t>
+          <t>even_MAG-GUT89309.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01034313554366345</v>
+        <v>0.010260947608662</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0126627764827718</v>
+        <v>0.01273723037269214</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1380085028437634</v>
+        <v>0.09016089011379524</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01043169014027065</v>
+        <v>0.010309728437841</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02393344816942748</v>
+        <v>0.0273314658303798</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01046722552993149</v>
+        <v>0.01026353256875712</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01069973747143436</v>
+        <v>0.0105251318902704</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1317100576822369</v>
+        <v>0.1174659834477478</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0525966978565096</v>
+        <v>0.1423688368064361</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5309926632986616</v>
+        <v>0.4957940699204563</v>
       </c>
       <c r="L42" t="n">
-        <v>0.06815406498132942</v>
+        <v>0.07278218300296194</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5309926632986616</v>
+        <v>0.4957940699204563</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2687,97 +2687,97 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89747.fa</t>
+          <t>even_MAG-GUT89335.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.814184934513219e-07</v>
+        <v>0.01049070241963362</v>
       </c>
       <c r="C43" t="n">
-        <v>0.008551291263668163</v>
+        <v>0.01514866581946146</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1269463698610429</v>
+        <v>0.06930240505558828</v>
       </c>
       <c r="E43" t="n">
-        <v>3.092009351818747e-05</v>
+        <v>0.0105854836861379</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01219973389347253</v>
+        <v>0.02430392092155125</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00079665090736532</v>
+        <v>0.01062806160137945</v>
       </c>
       <c r="H43" t="n">
-        <v>0.006247537709080464</v>
+        <v>0.01079120379525331</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8409026869484261</v>
+        <v>0.285353771094885</v>
       </c>
       <c r="J43" t="n">
-        <v>0.00225321251790511</v>
+        <v>0.04130554885834459</v>
       </c>
       <c r="K43" t="n">
-        <v>5.464117294420293e-14</v>
+        <v>0.4609798606597634</v>
       </c>
       <c r="L43" t="n">
-        <v>0.002071215386973147</v>
+        <v>0.06111037608800172</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8409026869484261</v>
+        <v>0.4609798606597634</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89784.fa</t>
+          <t>even_MAG-GUT89577.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0108708278565323</v>
+        <v>0.01119305291366049</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06328900138846785</v>
+        <v>0.01331324775529882</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1045719437678585</v>
+        <v>0.06578630176807002</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02216061093029743</v>
+        <v>0.01120919273918972</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03256342936102721</v>
+        <v>0.01657317793684328</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01047248067075723</v>
+        <v>0.01136952868302978</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01177065576946925</v>
+        <v>0.01191807865533912</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01844219416971989</v>
+        <v>0.4516240667823514</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2445620260611379</v>
+        <v>0.01833919389972132</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4707739686630039</v>
+        <v>0.369927130209242</v>
       </c>
       <c r="L44" t="n">
-        <v>0.01052286136172855</v>
+        <v>0.01874702865725414</v>
       </c>
       <c r="M44" t="n">
-        <v>0.4707739686630039</v>
+        <v>0.4516240667823514</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -2793,44 +2793,44 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89815.fa</t>
+          <t>even_MAG-GUT89608.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01085426472791652</v>
+        <v>0.01290893041022807</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03452319108891463</v>
+        <v>0.0506274999351064</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1497823105948906</v>
+        <v>0.06420533244543861</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05814514391947246</v>
+        <v>0.03000322187669455</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03718559912991801</v>
+        <v>0.02480309617155415</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01047246471189707</v>
+        <v>0.0105749833083944</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01202583005843089</v>
+        <v>0.01564968405247731</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01642371031101362</v>
+        <v>0.02064232205299611</v>
       </c>
       <c r="J45" t="n">
-        <v>0.09147954409344583</v>
+        <v>0.3567184489383558</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5687285243265691</v>
+        <v>0.403333426106452</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01037941703753114</v>
+        <v>0.01053305470230279</v>
       </c>
       <c r="M45" t="n">
-        <v>0.5687285243265691</v>
+        <v>0.403333426106452</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -2846,150 +2846,150 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89833.fa</t>
+          <t>even_MAG-GUT89735.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01078063737082447</v>
+        <v>0.01034313554366345</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01191110587286283</v>
+        <v>0.0126627764827718</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09940484475544532</v>
+        <v>0.1380085028437634</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01079726874582168</v>
+        <v>0.01043169014027065</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01673382957839157</v>
+        <v>0.02393344816942748</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01123786437666015</v>
+        <v>0.01046722552993149</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0121116779497219</v>
+        <v>0.01069973747143436</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6386624561250011</v>
+        <v>0.1317100576822369</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01170976816088874</v>
+        <v>0.0525966978565096</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1627784588969511</v>
+        <v>0.5309926632986616</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01387208816743123</v>
+        <v>0.06815406498132942</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6386624561250011</v>
+        <v>0.5309926632986616</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89836.fa</t>
+          <t>even_MAG-GUT89747.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01115120703685077</v>
+        <v>3.814184934513219e-07</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01339347133549592</v>
+        <v>0.008551291263668163</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1521652120862385</v>
+        <v>0.1269463698610429</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01118375649489615</v>
+        <v>3.092009351818747e-05</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01632819542339132</v>
+        <v>0.01219973389347253</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01135962066172112</v>
+        <v>0.00079665090736532</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01189773498925689</v>
+        <v>0.006247537709080464</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3417244740516882</v>
+        <v>0.8409026869484261</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01394541100075881</v>
+        <v>0.00225321251790511</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4035661724263575</v>
+        <v>5.464117294420293e-14</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01328474449334481</v>
+        <v>0.002071215386973147</v>
       </c>
       <c r="M47" t="n">
-        <v>0.4035661724263575</v>
+        <v>0.8409026869484261</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89852.fa</t>
+          <t>even_MAG-GUT89784.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0116025935676217</v>
+        <v>0.0108708278565323</v>
       </c>
       <c r="C48" t="n">
-        <v>0.04369718277554564</v>
+        <v>0.06328900138846785</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1833446500257849</v>
+        <v>0.1045719437678585</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02317737470627959</v>
+        <v>0.02216061093029743</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03515875055627773</v>
+        <v>0.03256342936102721</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01052354070121642</v>
+        <v>0.01047248067075723</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01224164868352752</v>
+        <v>0.01177065576946925</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01894529015024433</v>
+        <v>0.01844219416971989</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1301576692681732</v>
+        <v>0.2445620260611379</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5206803391274667</v>
+        <v>0.4707739686630039</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01047096043786228</v>
+        <v>0.01052286136172855</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5206803391274667</v>
+        <v>0.4707739686630039</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3005,44 +3005,44 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90020.fa</t>
+          <t>even_MAG-GUT89815.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01395715966569538</v>
+        <v>0.01085426472791652</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05737947022848596</v>
+        <v>0.03452319108891463</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1869500463227385</v>
+        <v>0.1497823105948906</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03059328883034543</v>
+        <v>0.05814514391947246</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03078652161518296</v>
+        <v>0.03718559912991801</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01164547557786881</v>
+        <v>0.01047246471189707</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01324192666664936</v>
+        <v>0.01202583005843089</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02213059008149139</v>
+        <v>0.01642371031101362</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04599586729894525</v>
+        <v>0.09147954409344583</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5770451906998789</v>
+        <v>0.5687285243265691</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01027446301271825</v>
+        <v>0.01037941703753114</v>
       </c>
       <c r="M49" t="n">
-        <v>0.5770451906998789</v>
+        <v>0.5687285243265691</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3058,150 +3058,150 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90054.fa</t>
+          <t>even_MAG-GUT89833.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01067678913686177</v>
+        <v>0.01078063737082447</v>
       </c>
       <c r="C50" t="n">
-        <v>0.04008261108562673</v>
+        <v>0.01191110587286283</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1306947497788319</v>
+        <v>0.09940484475544532</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03185481296882627</v>
+        <v>0.01079726874582168</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02936345584196505</v>
+        <v>0.01673382957839157</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01058230734631675</v>
+        <v>0.01123786437666015</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01277020289478888</v>
+        <v>0.0121116779497219</v>
       </c>
       <c r="I50" t="n">
-        <v>0.015636636448847</v>
+        <v>0.6386624561250011</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1835532682045082</v>
+        <v>0.01170976816088874</v>
       </c>
       <c r="K50" t="n">
-        <v>0.524282677074409</v>
+        <v>0.1627784588969511</v>
       </c>
       <c r="L50" t="n">
-        <v>0.01050248921901843</v>
+        <v>0.01387208816743123</v>
       </c>
       <c r="M50" t="n">
-        <v>0.524282677074409</v>
+        <v>0.6386624561250011</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>g__Pediococcus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90090.fa</t>
+          <t>even_MAG-GUT89836.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01052860200587692</v>
+        <v>0.01115120703685077</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0138796450115555</v>
+        <v>0.01339347133549592</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07926790732379754</v>
+        <v>0.1521652120862385</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01057420611640812</v>
+        <v>0.01118375649489615</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01792953373696575</v>
+        <v>0.01632819542339132</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01235887534077112</v>
+        <v>0.01135962066172112</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01163405997752153</v>
+        <v>0.01189773498925689</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6676504809946515</v>
+        <v>0.3417244740516882</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01179246249114531</v>
+        <v>0.01394541100075881</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1485280147372133</v>
+        <v>0.4035661724263575</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0158562122640934</v>
+        <v>0.01328474449334481</v>
       </c>
       <c r="M51" t="n">
-        <v>0.6676504809946515</v>
+        <v>0.4035661724263575</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Pediococcus</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90362.fa</t>
+          <t>even_MAG-GUT89852.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01098802572904466</v>
+        <v>0.0116025935676217</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06492805763075986</v>
+        <v>0.04369718277554564</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1376205175091414</v>
+        <v>0.1833446500257849</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03578868259748089</v>
+        <v>0.02317737470627959</v>
       </c>
       <c r="F52" t="n">
-        <v>0.02543356582348908</v>
+        <v>0.03515875055627773</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0105710100726378</v>
+        <v>0.01052354070121642</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01190233104710021</v>
+        <v>0.01224164868352752</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01978791912109747</v>
+        <v>0.01894529015024433</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1932836385770457</v>
+        <v>0.1301576692681732</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4793260648013353</v>
+        <v>0.5206803391274667</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01037018709086769</v>
+        <v>0.01047096043786228</v>
       </c>
       <c r="M52" t="n">
-        <v>0.4793260648013353</v>
+        <v>0.5206803391274667</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -3217,44 +3217,44 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90441.fa</t>
+          <t>even_MAG-GUT90020.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01290658600186261</v>
+        <v>0.01395715966569538</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07984231971854265</v>
+        <v>0.05737947022848596</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1218315847586998</v>
+        <v>0.1869500463227385</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03292412253957999</v>
+        <v>0.03059328883034543</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02466447918099223</v>
+        <v>0.03078652161518296</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01039028240922809</v>
+        <v>0.01164547557786881</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01348228159854238</v>
+        <v>0.01324192666664936</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01974920261401512</v>
+        <v>0.02213059008149139</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1363191724114618</v>
+        <v>0.04599586729894525</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5376623272916271</v>
+        <v>0.5770451906998789</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01022764147544813</v>
+        <v>0.01027446301271825</v>
       </c>
       <c r="M53" t="n">
-        <v>0.5376623272916271</v>
+        <v>0.5770451906998789</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3270,44 +3270,44 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90682.fa</t>
+          <t>even_MAG-GUT90054.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01090317900946171</v>
+        <v>0.01067678913686177</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04496002366709689</v>
+        <v>0.04008261108562673</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03962853139174521</v>
+        <v>0.1306947497788319</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08441433094355985</v>
+        <v>0.03185481296882627</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02133475217765644</v>
+        <v>0.02936345584196505</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0105372365579454</v>
+        <v>0.01058230734631675</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0167700114248979</v>
+        <v>0.01277020289478888</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01508767773390697</v>
+        <v>0.015636636448847</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2039639589859034</v>
+        <v>0.1835532682045082</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5419185463135057</v>
+        <v>0.524282677074409</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01048175179432055</v>
+        <v>0.01050248921901843</v>
       </c>
       <c r="M54" t="n">
-        <v>0.5419185463135057</v>
+        <v>0.524282677074409</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3323,44 +3323,44 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90694.fa</t>
+          <t>even_MAG-GUT90090.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.38904220165039e-07</v>
+        <v>0.01052860200587692</v>
       </c>
       <c r="C55" t="n">
-        <v>0.006224384859687153</v>
+        <v>0.0138796450115555</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1131065971805276</v>
+        <v>0.07926790732379754</v>
       </c>
       <c r="E55" t="n">
-        <v>6.855150370498883e-05</v>
+        <v>0.01057420611640812</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0134732479099695</v>
+        <v>0.01792953373696575</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001351959448024706</v>
+        <v>0.01235887534077112</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00380416120841308</v>
+        <v>0.01163405997752153</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8567351539537539</v>
+        <v>0.6676504809946515</v>
       </c>
       <c r="J55" t="n">
-        <v>0.001868366401615634</v>
+        <v>0.01179246249114531</v>
       </c>
       <c r="K55" t="n">
-        <v>4.412454333345917e-14</v>
+        <v>0.1485280147372133</v>
       </c>
       <c r="L55" t="n">
-        <v>0.003366938630039057</v>
+        <v>0.0158562122640934</v>
       </c>
       <c r="M55" t="n">
-        <v>0.8567351539537539</v>
+        <v>0.6676504809946515</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -3369,51 +3369,51 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>g__Ligilactobacillus</t>
+          <t>g__Ligilactobacillus(reject)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90730.fa</t>
+          <t>even_MAG-GUT90362.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0108372195171746</v>
+        <v>0.01098802572904466</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06350011132808359</v>
+        <v>0.06492805763075986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1099299414917072</v>
+        <v>0.1376205175091414</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02033049731664605</v>
+        <v>0.03578868259748089</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02404822932795691</v>
+        <v>0.02543356582348908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01062234662979264</v>
+        <v>0.0105710100726378</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01329386976563204</v>
+        <v>0.01190233104710021</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0151280656201441</v>
+        <v>0.01978791912109747</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3031922228002299</v>
+        <v>0.1932836385770457</v>
       </c>
       <c r="K56" t="n">
-        <v>0.4184619899570069</v>
+        <v>0.4793260648013353</v>
       </c>
       <c r="L56" t="n">
-        <v>0.010655506245626</v>
+        <v>0.01037018709086769</v>
       </c>
       <c r="M56" t="n">
-        <v>0.4184619899570069</v>
+        <v>0.4793260648013353</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -3429,44 +3429,44 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90941.fa</t>
+          <t>even_MAG-GUT90441.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01097158537367885</v>
+        <v>0.01290658600186261</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05300179319871921</v>
+        <v>0.07984231971854265</v>
       </c>
       <c r="D57" t="n">
-        <v>0.09842864079233982</v>
+        <v>0.1218315847586998</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0538249046430043</v>
+        <v>0.03292412253957999</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02891705785738067</v>
+        <v>0.02466447918099223</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0103294394203308</v>
+        <v>0.01039028240922809</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01339701221995354</v>
+        <v>0.01348228159854238</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01717741167738774</v>
+        <v>0.01974920261401512</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1738354531101818</v>
+        <v>0.1363191724114618</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5298508781152541</v>
+        <v>0.5376623272916271</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0102658235917692</v>
+        <v>0.01022764147544813</v>
       </c>
       <c r="M57" t="n">
-        <v>0.5298508781152541</v>
+        <v>0.5376623272916271</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -3482,44 +3482,44 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90963.fa</t>
+          <t>even_MAG-GUT90671.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0105512132727262</v>
+        <v>0.01077449381412466</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09095370946070108</v>
+        <v>0.03484807243301093</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04313153684447062</v>
+        <v>0.1453883128826224</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08584436016685247</v>
+        <v>0.08979938721350066</v>
       </c>
       <c r="F58" t="n">
-        <v>0.017812828645508</v>
+        <v>0.03524068445538162</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01049349883999265</v>
+        <v>0.01064487703110361</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01694459994628597</v>
+        <v>0.01290447047144841</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01822532159949019</v>
+        <v>0.01542897788295091</v>
       </c>
       <c r="J58" t="n">
-        <v>0.3243962755001952</v>
+        <v>0.05911795134505816</v>
       </c>
       <c r="K58" t="n">
-        <v>0.3712685072203155</v>
+        <v>0.5754665424736306</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01037814850346183</v>
+        <v>0.01038622999716803</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3712685072203155</v>
+        <v>0.5754665424736306</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -3535,44 +3535,44 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91014.fa</t>
+          <t>even_MAG-GUT90682.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01290658600186261</v>
+        <v>0.01090317900946171</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07984231971854265</v>
+        <v>0.04496002366709689</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1218315847586998</v>
+        <v>0.03962853139174521</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03292412253957999</v>
+        <v>0.08441433094355985</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02466447918099223</v>
+        <v>0.02133475217765644</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01039028240922809</v>
+        <v>0.0105372365579454</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01348228159854238</v>
+        <v>0.0167700114248979</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01974920261401512</v>
+        <v>0.01508767773390697</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1363191724114618</v>
+        <v>0.2039639589859034</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5376623272916271</v>
+        <v>0.5419185463135057</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01022764147544813</v>
+        <v>0.01048175179432055</v>
       </c>
       <c r="M59" t="n">
-        <v>0.5376623272916271</v>
+        <v>0.5419185463135057</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -3588,44 +3588,44 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91110.fa</t>
+          <t>even_MAG-GUT90694.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01078063737082447</v>
+        <v>6.38904220165039e-07</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01191110587286283</v>
+        <v>0.006224384859687153</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09940484475544532</v>
+        <v>0.1131065971805276</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01079726874582168</v>
+        <v>6.855150370498883e-05</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01673382957839157</v>
+        <v>0.0134732479099695</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01123786437666015</v>
+        <v>0.001351959448024706</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0121116779497219</v>
+        <v>0.00380416120841308</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6386624561250011</v>
+        <v>0.8567351539537539</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01170976816088874</v>
+        <v>0.001868366401615634</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1627784588969511</v>
+        <v>4.412454333345917e-14</v>
       </c>
       <c r="L60" t="n">
-        <v>0.01387208816743123</v>
+        <v>0.003366938630039057</v>
       </c>
       <c r="M60" t="n">
-        <v>0.6386624561250011</v>
+        <v>0.8567351539537539</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -3641,44 +3641,44 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91566.fa</t>
+          <t>even_MAG-GUT90730.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01123477633325637</v>
+        <v>0.0108372195171746</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2076010631417952</v>
+        <v>0.06350011132808359</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01994154507907423</v>
+        <v>0.1099299414917072</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01168651961838828</v>
+        <v>0.02033049731664605</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02336628824502125</v>
+        <v>0.02404822932795691</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01476853964662632</v>
+        <v>0.01062234662979264</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01029400444921969</v>
+        <v>0.01329386976563204</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2017553400937635</v>
+        <v>0.0151280656201441</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1925459210766357</v>
+        <v>0.3031922228002299</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2686322414951818</v>
+        <v>0.4184619899570069</v>
       </c>
       <c r="L61" t="n">
-        <v>0.03817376082103752</v>
+        <v>0.010655506245626</v>
       </c>
       <c r="M61" t="n">
-        <v>0.2686322414951818</v>
+        <v>0.4184619899570069</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -3694,44 +3694,44 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91702.fa</t>
+          <t>even_MAG-GUT90775.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01278732770862385</v>
+        <v>0.01057869141163889</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1297334366454167</v>
+        <v>0.07311294352342927</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02548198545912565</v>
+        <v>0.1157754414972238</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01185764234826602</v>
+        <v>0.03993327327589845</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02384899414869571</v>
+        <v>0.02527559216935066</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01421053732629066</v>
+        <v>0.01092604258595584</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01079798920488439</v>
+        <v>0.01380373382576267</v>
       </c>
       <c r="I62" t="n">
-        <v>0.06667101628401956</v>
+        <v>0.01438012528718885</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2454636036678635</v>
+        <v>0.1458918592484323</v>
       </c>
       <c r="K62" t="n">
-        <v>0.418970152074369</v>
+        <v>0.5400228718397443</v>
       </c>
       <c r="L62" t="n">
-        <v>0.040177315132445</v>
+        <v>0.01029942533537502</v>
       </c>
       <c r="M62" t="n">
-        <v>0.418970152074369</v>
+        <v>0.5400228718397443</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -3747,51 +3747,369 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT90941.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.01097158537367885</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.05300179319871921</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.09842864079233982</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0538249046430043</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.02891705785738067</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0103294394203308</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.01339701221995354</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.01717741167738774</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.1738354531101818</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5298508781152541</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0102658235917692</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.5298508781152541</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90963.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0105512132727262</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.09095370946070108</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.04313153684447062</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.08584436016685247</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.017812828645508</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.01049349883999265</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.01694459994628597</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.01822532159949019</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3243962755001952</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3712685072203155</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.01037814850346183</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.3712685072203155</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91014.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.01290658600186261</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.07984231971854265</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.1218315847586998</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.03292412253957999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.02466447918099223</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01039028240922809</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.01348228159854238</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.01974920261401512</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.1363191724114618</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.5376623272916271</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.01022764147544813</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5376623272916271</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91110.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01078063737082447</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01191110587286283</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.09940484475544532</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.01079726874582168</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01673382957839157</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.01123786437666015</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0121116779497219</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.6386624561250011</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.01170976816088874</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.1627784588969511</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.01387208816743123</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.6386624561250011</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>g__Ligilactobacillus(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91566.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.01123477633325637</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.2076010631417952</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.01994154507907423</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.01168651961838828</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.02336628824502125</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.01476853964662632</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.01029400444921969</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.2017553400937635</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.1925459210766357</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.2686322414951818</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.03817376082103752</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.2686322414951818</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91702.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.01278732770862385</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1297334366454167</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.02548198545912565</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.01185764234826602</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.02384899414869571</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.01421053732629066</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.01079798920488439</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.06667101628401956</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.2454636036678635</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.418970152074369</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.040177315132445</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.418970152074369</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT91898.fa</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B69" t="n">
         <v>0.02846233875440035</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C69" t="n">
         <v>0.1758021092520144</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D69" t="n">
         <v>0.01743470490635561</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E69" t="n">
         <v>0.0268016305088114</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F69" t="n">
         <v>0.02150589783019353</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G69" t="n">
         <v>0.01233701074331411</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H69" t="n">
         <v>0.01124202208723945</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I69" t="n">
         <v>0.0561480959350593</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J69" t="n">
         <v>0.2881980659564745</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K69" t="n">
         <v>0.3360118483714519</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L69" t="n">
         <v>0.0260562756546855</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M69" t="n">
         <v>0.3360118483714519</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>g__Pediococcus</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
         <is>
           <t>g__Pediococcus</t>
         </is>
